--- a/SpreadsheetLightDataGridViewExport/FindDups.xlsx
+++ b/SpreadsheetLightDataGridViewExport/FindDups.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Policies" sheetId="1" r:id="rId1"/>
+    <sheet name="SearchFor" sheetId="2" r:id="rId1"/>
+    <sheet name="Policies" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
   <si>
     <t>POLICY NO</t>
   </si>
@@ -354,9 +355,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
